--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -316,9 +316,6 @@
     <t>m5 m14</t>
   </si>
   <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
     <t>UniUniPromiscuous</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>r2 r5</t>
   </si>
   <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
     <t>OrdPromiscIndep</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>r3 r6</t>
   </si>
   <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
     <t>orderedBiBi</t>
   </si>
   <si>
@@ -358,16 +349,7 @@
     <t>m9 m13</t>
   </si>
   <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
     <t>massAction</t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
   </si>
   <si>
     <t>diffusion</t>
@@ -509,7 +491,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="L2:N17 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,7 +624,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:N17 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,7 +770,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,7 +993,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1331,17 +1313,17 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -1406,34 +1388,28 @@
       <c r="K2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,16 +1417,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>27</v>
@@ -1460,9 +1436,6 @@
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,22 +1443,19 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,25 +1463,22 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,16 +1486,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>27</v>
@@ -1538,9 +1505,6 @@
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1562,16 +1526,13 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,16 +1540,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,16 +1554,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,16 +1568,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,16 +1582,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,16 +1596,13 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1624,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2615,7 +2561,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="L2:N17 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3062,7 +3008,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:N17 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3288,7 +3234,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:N17 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3385,7 +3331,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:N17 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3517,7 +3463,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:N17 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3649,7 +3595,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3830,7 +3776,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:N17 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -245,12 +245,6 @@
   </si>
   <si>
     <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
   </si>
   <si>
     <t>enzyme/rxn</t>
@@ -490,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="L2:N17 B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,18 +615,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:N17 A8"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -642,14 +636,8 @@
       <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -659,14 +647,8 @@
       <c r="C2" s="0" t="n">
         <v>1.10350536706976</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -676,14 +658,8 @@
       <c r="C3" s="0" t="n">
         <v>2.12397436954052E-007</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -693,14 +669,8 @@
       <c r="C4" s="0" t="n">
         <v>3.18755368558865E-009</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -710,14 +680,8 @@
       <c r="C5" s="0" t="n">
         <v>3.33787220043099E-011</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -727,14 +691,8 @@
       <c r="C6" s="0" t="n">
         <v>2.00430304742416E-005</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -742,12 +700,6 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
         <v>6.60284204552005E-011</v>
       </c>
     </row>
@@ -770,7 +722,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,16 +732,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,7 +945,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,13 +958,13 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,57 +1265,57 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:N17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,13 +1323,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1394,16 +1346,16 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1417,16 +1369,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>27</v>
@@ -1443,13 +1395,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1463,16 +1415,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1486,16 +1438,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>27</v>
@@ -1512,7 +1464,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1526,7 +1478,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1540,7 +1492,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1554,7 +1506,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1568,7 +1520,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1582,7 +1534,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1596,7 +1548,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1624,7 +1576,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2561,7 +2513,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="L2:N17 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3008,7 +2960,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:N17 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3234,7 +3186,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:N17 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3331,7 +3283,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:N17 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3463,7 +3415,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:N17 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3595,7 +3547,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:N17 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3776,7 +3728,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:N17 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -482,15 +492,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,62 +535,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -588,21 +598,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -617,29 +635,29 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -650,7 +668,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -661,7 +679,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -672,7 +690,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -683,7 +701,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -694,7 +712,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -706,7 +724,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -721,32 +739,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -760,7 +778,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -774,7 +792,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -788,7 +806,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -802,7 +820,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -816,7 +834,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -830,7 +848,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -844,7 +862,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -858,7 +876,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -872,7 +890,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +904,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +918,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +932,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -929,7 +947,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -944,32 +962,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -983,7 +1001,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -997,7 +1015,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1011,7 +1029,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1025,7 +1043,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1039,7 +1057,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1053,7 +1071,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1067,7 +1085,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1081,7 +1099,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1095,7 +1113,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1109,7 +1127,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1123,7 +1141,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1137,7 +1155,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1151,7 +1169,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1165,7 +1183,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1179,7 +1197,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1193,7 +1211,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1207,7 +1225,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1221,7 +1239,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1235,7 +1253,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1250,7 +1268,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1265,74 +1283,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1343,19 +1361,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1366,22 +1384,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1392,16 +1410,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1412,19 +1430,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1435,22 +1453,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1461,10 +1479,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1475,10 +1493,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1489,10 +1507,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1503,10 +1521,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1517,10 +1535,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1531,10 +1549,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1545,10 +1563,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1560,7 +1578,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1575,83 +1593,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1716,7 +1734,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1781,7 +1799,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1846,7 +1864,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1911,7 +1929,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1976,7 +1994,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2041,7 +2059,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2106,7 +2124,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2171,7 +2189,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2236,7 +2254,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2301,7 +2319,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2366,7 +2384,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2431,7 +2449,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2497,7 +2515,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2512,41 +2530,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2563,10 +2581,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2583,10 +2601,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2603,10 +2621,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2623,10 +2641,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2643,10 +2661,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2663,10 +2681,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2683,10 +2701,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2703,10 +2721,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2723,10 +2741,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2743,10 +2761,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2763,10 +2781,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2783,10 +2801,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2803,10 +2821,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2823,10 +2841,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2843,10 +2861,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2863,10 +2881,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2883,10 +2901,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2903,10 +2921,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2923,10 +2941,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2944,7 +2962,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2959,38 +2977,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3001,10 +3019,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3015,10 +3033,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3029,10 +3047,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3043,10 +3061,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3057,10 +3075,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3071,10 +3089,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3085,10 +3103,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3099,10 +3117,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3113,10 +3131,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3127,10 +3145,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3141,10 +3159,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3155,10 +3173,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3170,7 +3188,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3185,89 +3203,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3282,124 +3300,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3414,124 +3432,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3546,29 +3564,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3579,7 +3597,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3590,7 +3608,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3601,7 +3619,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3612,7 +3630,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3623,7 +3641,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3634,7 +3652,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3645,7 +3663,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3656,7 +3674,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3667,7 +3685,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3678,7 +3696,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3689,7 +3707,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3700,7 +3718,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3712,7 +3730,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3727,29 +3745,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3760,7 +3778,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3771,7 +3789,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3782,7 +3800,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3793,7 +3811,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3804,7 +3822,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3815,7 +3833,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3826,7 +3844,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3837,7 +3855,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3848,7 +3866,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3859,7 +3877,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3870,7 +3888,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3881,7 +3899,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3892,7 +3910,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3903,7 +3921,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3914,7 +3932,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3925,7 +3943,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3954,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3947,7 +3965,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3958,7 +3976,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3970,7 +3988,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -492,15 +474,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,24 +494,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -587,6 +570,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -596,27 +582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -636,7 +604,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,18 +614,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -668,7 +636,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -679,7 +647,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -690,7 +658,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -701,7 +669,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -712,7 +680,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -740,7 +708,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,21 +718,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -778,7 +746,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -792,7 +760,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -806,7 +774,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -820,7 +788,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -834,7 +802,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -848,7 +816,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -862,7 +830,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -876,7 +844,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -890,7 +858,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -904,7 +872,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -918,7 +886,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -932,7 +900,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -963,7 +931,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -973,21 +941,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1001,7 +969,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1015,7 +983,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1029,7 +997,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1043,7 +1011,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1057,7 +1025,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1071,7 +1039,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1085,7 +1053,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1099,7 +1067,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1113,7 +1081,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1127,7 +1095,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1141,7 +1109,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1155,7 +1123,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1169,7 +1137,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1183,7 +1151,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1197,7 +1165,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1211,7 +1179,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1225,7 +1193,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1239,7 +1207,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1253,7 +1221,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1284,13 +1252,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1300,57 +1268,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1361,19 +1329,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1384,22 +1352,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1410,16 +1378,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1430,19 +1398,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1453,22 +1421,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1479,10 +1447,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1493,10 +1461,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1507,10 +1475,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1521,10 +1489,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1535,10 +1503,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1549,10 +1517,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1563,10 +1531,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1594,7 +1562,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1604,72 +1572,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1734,7 +1702,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1799,7 +1767,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1864,7 +1832,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1929,7 +1897,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1994,7 +1962,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2059,7 +2027,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2124,7 +2092,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2189,7 +2157,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2254,7 +2222,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2319,7 +2287,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2384,7 +2352,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2449,7 +2417,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2528,434 +2496,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="B3 I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2975,214 +2818,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3204,7 +3006,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3214,72 +3016,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3103,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3311,107 +3113,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3235,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3443,107 +3245,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3367,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3575,18 +3377,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3597,7 +3399,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3608,7 +3410,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3619,7 +3421,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3630,7 +3432,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3641,7 +3443,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3652,7 +3454,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3663,7 +3465,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3674,7 +3476,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3685,7 +3487,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3696,7 +3498,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3707,7 +3509,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3718,7 +3520,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3746,7 +3548,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3756,18 +3558,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3778,7 +3580,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3789,7 +3591,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3800,7 +3602,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3811,7 +3613,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3822,7 +3624,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3833,7 +3635,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3844,7 +3646,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3855,7 +3657,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3866,7 +3668,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3877,7 +3679,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3888,7 +3690,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3899,7 +3701,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3910,7 +3712,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3921,7 +3723,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3932,7 +3734,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3943,7 +3745,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3954,7 +3756,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3965,7 +3767,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3976,7 +3778,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -441,12 +438,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -476,7 +473,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +601,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -614,13 +611,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +705,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,16 +715,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +928,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -941,16 +938,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,7 +1249,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1268,40 +1265,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,13 +1306,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1332,16 +1329,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1355,16 +1352,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
@@ -1381,13 +1378,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1401,16 +1398,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1424,16 +1421,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>26</v>
@@ -1450,7 +1447,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1464,7 +1461,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1478,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1492,7 +1489,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1506,7 +1503,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1520,7 +1517,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1534,7 +1531,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1562,7 +1559,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2496,16 +2493,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="B3 I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,21 +2515,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,13 +2531,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2554,13 +2542,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2568,13 +2553,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2582,111 +2564,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2694,13 +2652,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,13 +2663,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,13 +2674,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2736,13 +2685,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2750,13 +2696,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2764,13 +2707,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2778,13 +2718,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2792,13 +2729,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2821,7 +2755,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2835,20 +2769,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2859,7 +2793,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2870,7 +2804,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2881,7 +2815,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2892,7 +2826,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2903,7 +2837,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2914,7 +2848,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2925,7 +2859,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2936,7 +2870,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2947,7 +2881,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2958,7 +2892,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2969,7 +2903,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2980,7 +2914,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3006,7 +2940,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3103,7 +3037,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3113,7 +3047,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +3169,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3245,7 +3179,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,7 +3301,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3377,13 +3311,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,7 +3482,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3558,13 +3492,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -598,110 +597,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -920,7 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1241,7 +1136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2495,7 +2390,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2937,10 +2832,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2950,72 +2845,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3166,138 +3096,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3474,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3730,4 +3528,108 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -424,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +444,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -472,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,64 +535,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -600,7 +627,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,21 +637,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -638,7 +665,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -652,7 +679,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -666,7 +693,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -680,7 +707,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -694,7 +721,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -708,7 +735,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -722,7 +749,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -736,7 +763,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -750,7 +777,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -764,7 +791,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -778,7 +805,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -792,7 +819,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -823,7 +850,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,21 +860,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -861,7 +888,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -875,7 +902,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -889,7 +916,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -903,7 +930,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -917,7 +944,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -931,7 +958,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -945,7 +972,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -959,7 +986,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -973,7 +1000,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -987,7 +1014,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1001,7 +1028,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1015,7 +1042,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1029,7 +1056,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1043,7 +1070,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1057,7 +1084,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1071,7 +1098,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1085,7 +1112,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1099,7 +1126,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1113,7 +1140,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1144,7 +1171,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1160,57 +1187,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1221,19 +1248,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1244,22 +1271,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1270,16 +1297,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1290,19 +1317,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1313,22 +1340,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1339,10 +1366,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1353,10 +1380,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1367,10 +1394,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1381,10 +1408,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1395,10 +1422,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1409,10 +1436,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1423,10 +1450,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1454,7 +1481,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1464,72 +1491,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1594,7 +1621,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1659,7 +1686,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1724,7 +1751,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1789,7 +1816,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1854,7 +1881,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1919,7 +1946,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1984,7 +2011,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2049,7 +2076,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2114,7 +2141,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2179,7 +2206,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2244,7 +2271,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2309,7 +2336,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2391,7 +2418,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2402,21 +2429,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2424,10 +2451,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2435,10 +2462,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2446,10 +2473,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2457,10 +2484,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2468,10 +2495,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2479,10 +2506,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2490,10 +2517,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2501,10 +2528,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2512,10 +2539,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2523,10 +2550,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2534,10 +2561,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2545,10 +2572,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2556,10 +2583,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2567,10 +2594,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2578,10 +2605,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2589,10 +2616,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2600,10 +2627,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2611,10 +2638,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2622,10 +2649,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2650,7 +2677,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2661,24 +2688,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2686,10 +2713,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2697,10 +2724,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2708,10 +2735,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2719,10 +2746,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2730,10 +2757,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2741,10 +2768,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2752,10 +2779,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2763,10 +2790,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2774,10 +2801,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2785,10 +2812,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2796,10 +2823,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2807,10 +2834,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2834,8 +2861,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="1" sqref="A6:B7 J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2845,107 +2872,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +2994,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2977,107 +3004,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3126,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3109,18 +3136,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3131,7 +3158,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3142,7 +3169,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3153,7 +3180,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3164,7 +3191,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3175,7 +3202,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3186,7 +3213,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3197,7 +3224,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3208,7 +3235,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3219,7 +3246,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3230,7 +3257,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3241,7 +3268,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3252,7 +3279,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3280,7 +3307,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3290,18 +3317,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3312,7 +3339,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3323,7 +3350,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3334,7 +3361,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3345,7 +3372,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3356,7 +3383,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3367,7 +3394,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3378,7 +3405,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3389,7 +3416,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3400,7 +3427,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3411,7 +3438,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3422,7 +3449,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3433,7 +3460,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3444,7 +3471,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3455,7 +3482,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3466,7 +3493,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3477,7 +3504,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3488,7 +3515,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3499,7 +3526,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3510,7 +3537,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3538,7 +3565,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3548,18 +3575,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3570,7 +3597,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3581,7 +3608,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3592,7 +3619,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3603,7 +3630,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3614,7 +3641,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
